--- a/forms/app/covid_rdt.xlsx
+++ b/forms/app/covid_rdt.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84041794-D8B5-804E-91DF-30C947933F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -794,7 +803,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1154,6 +1163,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1420,10 +1432,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -3165,7 +3177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:16384" ht="160" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16384" ht="170" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -3207,7 +3219,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" spans="1:16384" ht="176" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16384" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3249,7 +3261,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" spans="1:16384" ht="192" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16384" ht="204" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -19821,7 +19833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
@@ -19924,7 +19936,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -19994,7 +20006,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -20008,7 +20020,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -20022,7 +20034,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -20036,7 +20048,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>164</v>
       </c>
@@ -20050,7 +20062,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>164</v>
       </c>
@@ -20064,7 +20076,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>164</v>
       </c>
@@ -20078,7 +20090,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>171</v>
       </c>
@@ -20092,7 +20104,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>171</v>
       </c>
@@ -20106,7 +20118,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>171</v>
       </c>
@@ -20127,7 +20139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
@@ -20174,7 +20186,7 @@
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-03-26 20-58</v>
+        <v>2020-04-12 12-56</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>184</v>
